--- a/nr-update/ig/StructureDefinition-SituationOperationnelle.xlsx
+++ b/nr-update/ig/StructureDefinition-SituationOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:17:31+00:00</t>
+    <t>2025-07-24T13:25:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update/ig/StructureDefinition-SituationOperationnelle.xlsx
+++ b/nr-update/ig/StructureDefinition-SituationOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:25:54+00:00</t>
+    <t>2025-07-24T13:38:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update/ig/StructureDefinition-SituationOperationnelle.xlsx
+++ b/nr-update/ig/StructureDefinition-SituationOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:38:04+00:00</t>
+    <t>2025-07-24T13:40:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update/ig/StructureDefinition-SituationOperationnelle.xlsx
+++ b/nr-update/ig/StructureDefinition-SituationOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:40:14+00:00</t>
+    <t>2025-07-24T13:39:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update/ig/StructureDefinition-SituationOperationnelle.xlsx
+++ b/nr-update/ig/StructureDefinition-SituationOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:39:58+00:00</t>
+    <t>2025-07-24T13:47:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update/ig/StructureDefinition-SituationOperationnelle.xlsx
+++ b/nr-update/ig/StructureDefinition-SituationOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:47:13+00:00</t>
+    <t>2025-07-24T13:47:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update/ig/StructureDefinition-SituationOperationnelle.xlsx
+++ b/nr-update/ig/StructureDefinition-SituationOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:47:46+00:00</t>
+    <t>2025-07-24T13:49:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update/ig/StructureDefinition-SituationOperationnelle.xlsx
+++ b/nr-update/ig/StructureDefinition-SituationOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:49:36+00:00</t>
+    <t>2025-07-24T13:51:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update/ig/StructureDefinition-SituationOperationnelle.xlsx
+++ b/nr-update/ig/StructureDefinition-SituationOperationnelle.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:51:56+00:00</t>
+    <t>2025-07-24T14:03:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update/ig/StructureDefinition-SituationOperationnelle.xlsx
+++ b/nr-update/ig/StructureDefinition-SituationOperationnelle.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="105">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T14:03:43+00:00</t>
+    <t>2025-07-25T12:19:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -325,6 +325,16 @@
   </si>
   <si>
     <t>Adresse de télécommunication du professionnel dans le cadre de l'offre décrite.</t>
+  </si>
+  <si>
+    <t>SituationOperationnelle.exerciceProfessionnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/ExerciceProfessionnel)
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe ExerciceProfessionnel.</t>
   </si>
 </sst>
 </file>
@@ -627,7 +637,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ10"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -646,7 +656,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="64.53125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="75.46875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1677,6 +1687,106 @@
         <v>70</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
